--- a/VersionRecords/Version 5.3.7 20170406/模板_版本Bug和特性计划及评审表vX.X.X.xlsx
+++ b/VersionRecords/Version 5.3.7 20170406/模板_版本Bug和特性计划及评审表vX.X.X.xlsx
@@ -29,12 +29,12 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="69">
   <si>
     <t>No</t>
   </si>
@@ -243,67 +243,12 @@
   <si>
     <t>修正负责人</t>
   </si>
-  <si>
-    <t>5.3.7</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>定时周期任务</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>架构组</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>定时查询招商银行余额</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>羽昆</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>凿空</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>WithdrawAmountCheckTask</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.mogoroom.tasktracker.task.WithdrawAmountCheckTask.java</t>
-  </si>
-  <si>
-    <t>{"taskImpl":"com.mogoroom.tasktracker.task.WithdrawAmountCheckTask"}</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>corn任务</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>5分钟 依赖上一个周期</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>无需</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -460,19 +405,6 @@
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="10">
@@ -724,7 +656,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -985,24 +917,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1021,7 +935,7 @@
     <cellStyle name="甘特图" xfId="3"/>
     <cellStyle name="着色 4" xfId="11" builtinId="41"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -1032,11 +946,9 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf/>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
     <tableStyle name="MySqlDefault" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
@@ -5627,10 +5539,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5710,52 +5622,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="89" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="90" t="s">
-        <v>70</v>
-      </c>
+    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="33"/>
-      <c r="D2" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="87" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="88" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" s="88" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="I2" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="91" t="s">
-        <v>78</v>
-      </c>
+      <c r="D2" s="34"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="41"/>
       <c r="K2" s="42"/>
-      <c r="L2" s="91" t="s">
-        <v>77</v>
-      </c>
-      <c r="M2" s="91" t="s">
-        <v>79</v>
-      </c>
-      <c r="N2" s="91" t="s">
-        <v>80</v>
-      </c>
-      <c r="O2" s="92" t="s">
-        <v>81</v>
-      </c>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="43"/>
       <c r="P2" s="44"/>
-      <c r="Q2" s="92" t="s">
-        <v>82</v>
-      </c>
+      <c r="Q2" s="43"/>
       <c r="R2" s="43"/>
     </row>
     <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -5777,26 +5661,6 @@
       <c r="P3" s="44"/>
       <c r="Q3" s="43"/>
       <c r="R3" s="43"/>
-    </row>
-    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
     </row>
   </sheetData>
   <phoneticPr fontId="24" type="noConversion"/>
